--- a/resultater.xlsx
+++ b/resultater.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
   <si>
     <t>Strategi</t>
   </si>
@@ -108,14 +108,20 @@
       <t xml:space="preserve"> hvis &gt;0.1</t>
     </r>
   </si>
+  <si>
+    <t>Mkt/SMB/HML</t>
+  </si>
+  <si>
+    <t>N = 3</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="170" formatCode="0.0000"/>
-    <numFmt numFmtId="175" formatCode="\(0.00\)"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="\(0.00\)"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -307,77 +313,116 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="175" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="175" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -387,45 +432,9 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -706,900 +715,1097 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O21"/>
+  <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R20" sqref="R20"/>
+      <selection activeCell="S24" sqref="S24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="18.85546875" style="3" customWidth="1"/>
-    <col min="3" max="14" width="8.5703125" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="17" width="8.5703125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34"/>
-      <c r="B1" s="35"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-    </row>
-    <row r="2" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="34"/>
-      <c r="B2" s="4" t="s">
+    <row r="1" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="26"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+    </row>
+    <row r="2" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="26"/>
+      <c r="B2" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="38"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="25"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="24" t="s">
+      <c r="G2" s="38"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="25"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="24" t="s">
+      <c r="J2" s="38"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="38"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="25"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="38"/>
-    </row>
-    <row r="3" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="34"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="27" t="s">
+      <c r="P2" s="38"/>
+      <c r="Q2" s="39"/>
+      <c r="R2" s="30"/>
+    </row>
+    <row r="3" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="26"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="27" t="s">
+      <c r="D3" s="33"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="28"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="27" t="s">
+      <c r="G3" s="33"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="28"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="27" t="s">
+      <c r="J3" s="33"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="33"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="M3" s="28"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="38"/>
-    </row>
-    <row r="4" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="34"/>
-      <c r="B4" s="30" t="s">
+      <c r="P3" s="33"/>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="30"/>
+    </row>
+    <row r="4" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="26"/>
+      <c r="B4" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="E4" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="31" t="s">
+      <c r="F4" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="32" t="s">
+      <c r="G4" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="33" t="s">
+      <c r="H4" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="31" t="s">
+      <c r="I4" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="32" t="s">
+      <c r="J4" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="33" t="s">
+      <c r="K4" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="31" t="s">
+      <c r="L4" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="32" t="s">
+      <c r="M4" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="33" t="s">
+      <c r="N4" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="O4" s="38"/>
-    </row>
-    <row r="5" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="34"/>
-      <c r="B5" s="6" t="s">
+      <c r="O4" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="R4" s="30"/>
+    </row>
+    <row r="5" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="26"/>
+      <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="5">
+        <v>0.18827450162878401</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0.18759999999999999</v>
+      </c>
+      <c r="E5" s="7">
+        <f>ABS(C5-D5)</f>
+        <v>6.7450162878401887E-4</v>
+      </c>
+      <c r="F5" s="5">
         <v>0.13673787441253199</v>
       </c>
-      <c r="D5" s="8">
+      <c r="G5" s="6">
         <v>0.1353</v>
       </c>
-      <c r="E5" s="9">
-        <f>ABS(C5-D5)</f>
+      <c r="H5" s="7">
+        <f>ABS(F5-G5)</f>
         <v>1.4378744125319864E-3</v>
       </c>
-      <c r="F5" s="7">
-        <v>0.18827450162878401</v>
-      </c>
-      <c r="G5" s="8">
-        <v>0.18759999999999999</v>
-      </c>
-      <c r="H5" s="9">
-        <f>ABS(F5-G5)</f>
-        <v>6.7450162878401887E-4</v>
-      </c>
-      <c r="I5" s="7">
+      <c r="I5" s="5">
         <v>0.127914366357295</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J5" s="6">
         <v>0.12770000000000001</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="7">
         <f>ABS(I5-J5)</f>
         <v>2.1436635729499276E-4</v>
       </c>
-      <c r="L5" s="7">
+      <c r="L5" s="40">
+        <v>0.22432337504491801</v>
+      </c>
+      <c r="M5" s="6">
+        <v>0.224</v>
+      </c>
+      <c r="N5" s="7">
+        <f>ABS(L5-M5)</f>
+        <v>3.2337504491800062E-4</v>
+      </c>
+      <c r="O5" s="5">
         <v>0.162486338242986</v>
       </c>
-      <c r="M5" s="8">
+      <c r="P5" s="6">
         <v>0.1623</v>
       </c>
-      <c r="N5" s="9">
-        <f>ABS(L5-M5)</f>
+      <c r="Q5" s="7">
+        <f>ABS(O5-P5)</f>
         <v>1.8633824298600055E-4</v>
       </c>
-      <c r="O5" s="38"/>
-    </row>
-    <row r="6" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="34"/>
-      <c r="B6" s="6" t="s">
+      <c r="R5" s="30"/>
+    </row>
+    <row r="6" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="26"/>
+      <c r="B6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="5">
+        <v>0.40204913362945499</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0.38479999999999998</v>
+      </c>
+      <c r="E6" s="7">
+        <f t="shared" ref="E6:E20" si="0">ABS(C6-D6)</f>
+        <v>1.7249133629455016E-2</v>
+      </c>
+      <c r="F6" s="5">
         <v>0.21421373046280001</v>
       </c>
-      <c r="D6" s="8">
+      <c r="G6" s="6">
         <v>0.21240000000000001</v>
       </c>
-      <c r="E6" s="9">
-        <f t="shared" ref="E6:E20" si="0">ABS(C6-D6)</f>
+      <c r="H6" s="7">
+        <f t="shared" ref="H6:H20" si="1">ABS(F6-G6)</f>
         <v>1.8137304628000062E-3</v>
       </c>
-      <c r="F6" s="7">
-        <v>0.40204913362945499</v>
-      </c>
-      <c r="G6" s="8">
-        <v>0.38479999999999998</v>
-      </c>
-      <c r="H6" s="9">
-        <f t="shared" ref="H6:H20" si="1">ABS(F6-G6)</f>
-        <v>1.7249133629455016E-2</v>
-      </c>
-      <c r="I6" s="7">
+      <c r="I6" s="5">
         <v>0.21318937426546899</v>
       </c>
-      <c r="J6" s="8">
+      <c r="J6" s="6">
         <v>0.20899999999999999</v>
       </c>
-      <c r="K6" s="9">
+      <c r="K6" s="7">
         <f t="shared" ref="K6:K20" si="2">ABS(I6-J6)</f>
         <v>4.1893742654690036E-3</v>
       </c>
-      <c r="L6" s="7">
+      <c r="L6" s="40">
+        <v>0.286599366311036</v>
+      </c>
+      <c r="M6" s="6">
+        <v>0.28510000000000002</v>
+      </c>
+      <c r="N6" s="7">
+        <f t="shared" ref="N6:N20" si="3">ABS(L6-M6)</f>
+        <v>1.4993663110359767E-3</v>
+      </c>
+      <c r="O6" s="5">
         <v>0.52554363225341905</v>
       </c>
-      <c r="M6" s="8">
+      <c r="P6" s="6">
         <v>0.50980000000000003</v>
       </c>
-      <c r="N6" s="9">
-        <f t="shared" ref="N6:N20" si="3">ABS(L6-M6)</f>
+      <c r="Q6" s="7">
+        <f t="shared" ref="Q6:Q34" si="4">ABS(O6-P6)</f>
         <v>1.5743632253419015E-2</v>
       </c>
-      <c r="O6" s="38"/>
-    </row>
-    <row r="7" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="34"/>
-      <c r="B7" s="6" t="s">
+      <c r="R6" s="30"/>
+    </row>
+    <row r="7" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="26"/>
+      <c r="B7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="5">
+        <v>7.9694362287821993E-2</v>
+      </c>
+      <c r="D7" s="6">
+        <v>7.9399999999999998E-2</v>
+      </c>
+      <c r="E7" s="7">
+        <f t="shared" si="0"/>
+        <v>2.9436228782199481E-4</v>
+      </c>
+      <c r="F7" s="5">
         <v>7.0055837753933606E-2</v>
       </c>
-      <c r="D7" s="8">
+      <c r="G7" s="6">
         <v>6.7900000000000002E-2</v>
       </c>
-      <c r="E7" s="9">
-        <f t="shared" si="0"/>
+      <c r="H7" s="7">
+        <f t="shared" si="1"/>
         <v>2.1558377539336038E-3</v>
       </c>
-      <c r="F7" s="7">
-        <v>7.9694362287821993E-2</v>
-      </c>
-      <c r="G7" s="8">
-        <v>7.9399999999999998E-2</v>
-      </c>
-      <c r="H7" s="9">
-        <f t="shared" si="1"/>
-        <v>2.9436228782199481E-4</v>
-      </c>
-      <c r="I7" s="7">
+      <c r="I7" s="5">
         <v>-7.2049133870627405E-2</v>
       </c>
-      <c r="J7" s="8">
+      <c r="J7" s="6">
         <v>-3.32E-2</v>
       </c>
-      <c r="K7" s="9">
+      <c r="K7" s="7">
         <f t="shared" si="2"/>
         <v>3.8849133870627404E-2</v>
       </c>
-      <c r="L7" s="7">
+      <c r="L7" s="40">
+        <v>0.21888058720178599</v>
+      </c>
+      <c r="M7" s="6">
+        <v>0.21859999999999999</v>
+      </c>
+      <c r="N7" s="7">
+        <f t="shared" si="3"/>
+        <v>2.8058720178600338E-4</v>
+      </c>
+      <c r="O7" s="5">
         <v>-3.7787832950351603E-2</v>
       </c>
-      <c r="M7" s="8">
+      <c r="P7" s="6">
         <v>1.2800000000000001E-2</v>
       </c>
-      <c r="N7" s="9">
-        <f t="shared" si="3"/>
+      <c r="Q7" s="7">
+        <f t="shared" si="4"/>
         <v>5.0587832950351602E-2</v>
       </c>
-      <c r="O7" s="38"/>
-    </row>
-    <row r="8" spans="1:15" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="36"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="11">
+      <c r="R7" s="30"/>
+    </row>
+    <row r="8" spans="1:18" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="28"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="9">
+        <v>0.11911923806013799</v>
+      </c>
+      <c r="D8" s="10">
+        <v>0.12</v>
+      </c>
+      <c r="E8" s="11">
+        <f t="shared" si="0"/>
+        <v>8.8076193986200146E-4</v>
+      </c>
+      <c r="F8" s="9">
         <v>0.175370858899908</v>
       </c>
-      <c r="D8" s="12">
+      <c r="G8" s="10">
         <v>0.17</v>
       </c>
-      <c r="E8" s="13">
-        <f t="shared" si="0"/>
+      <c r="H8" s="11">
+        <f t="shared" si="1"/>
         <v>5.3708588999079876E-3</v>
       </c>
-      <c r="F8" s="11">
-        <v>0.11911923806013799</v>
-      </c>
-      <c r="G8" s="12">
-        <v>0.12</v>
-      </c>
-      <c r="H8" s="13">
-        <f t="shared" si="1"/>
-        <v>8.8076193986200146E-4</v>
-      </c>
-      <c r="I8" s="11">
+      <c r="I8" s="9">
         <v>1.1753945846790599E-2</v>
       </c>
-      <c r="J8" s="12">
+      <c r="J8" s="10">
         <v>0.03</v>
       </c>
-      <c r="K8" s="13">
+      <c r="K8" s="11">
         <f t="shared" si="2"/>
         <v>1.8246054153209401E-2</v>
       </c>
-      <c r="L8" s="11">
+      <c r="L8" s="41">
+        <v>0.47061249532170601</v>
+      </c>
+      <c r="M8" s="10">
+        <v>0.46</v>
+      </c>
+      <c r="N8" s="11">
+        <f t="shared" si="3"/>
+        <v>1.0612495321705995E-2</v>
+      </c>
+      <c r="O8" s="9">
         <v>6.65361696927657E-6</v>
       </c>
-      <c r="M8" s="12">
+      <c r="P8" s="10">
         <v>0.02</v>
       </c>
-      <c r="N8" s="13">
-        <f t="shared" si="3"/>
+      <c r="Q8" s="11">
+        <f t="shared" si="4"/>
         <v>1.9993346383030724E-2</v>
       </c>
-      <c r="O8" s="39"/>
-    </row>
-    <row r="9" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="34"/>
-      <c r="B9" s="6" t="s">
+      <c r="R8" s="31"/>
+    </row>
+    <row r="9" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="26"/>
+      <c r="B9" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="5">
+        <v>7.9668538352175799E-2</v>
+      </c>
+      <c r="D9" s="6">
+        <v>8.1100000000000005E-2</v>
+      </c>
+      <c r="E9" s="7">
+        <f t="shared" si="0"/>
+        <v>1.4314616478242059E-3</v>
+      </c>
+      <c r="F9" s="5">
         <v>7.0078741574712403E-2</v>
       </c>
-      <c r="D9" s="8">
+      <c r="G9" s="6">
         <v>7.1900000000000006E-2</v>
       </c>
-      <c r="E9" s="9">
-        <f t="shared" si="0"/>
+      <c r="H9" s="7">
+        <f t="shared" si="1"/>
         <v>1.821258425287603E-3</v>
       </c>
-      <c r="F9" s="7">
-        <v>7.9668538352175799E-2</v>
-      </c>
-      <c r="G9" s="8">
-        <v>8.1100000000000005E-2</v>
-      </c>
-      <c r="H9" s="9">
-        <f t="shared" si="1"/>
-        <v>1.4314616478242059E-3</v>
-      </c>
-      <c r="I9" s="7">
+      <c r="I9" s="5">
         <v>-7.1863051607390302E-2</v>
       </c>
-      <c r="J9" s="8">
+      <c r="J9" s="6">
         <v>-2.9700000000000001E-2</v>
       </c>
-      <c r="K9" s="9">
+      <c r="K9" s="7">
         <f t="shared" si="2"/>
         <v>4.2163051607390298E-2</v>
       </c>
-      <c r="L9" s="7">
+      <c r="L9" s="40">
+        <v>0.22048622822956701</v>
+      </c>
+      <c r="M9" s="6">
+        <v>0.25359999999999999</v>
+      </c>
+      <c r="N9" s="7">
+        <f t="shared" si="3"/>
+        <v>3.3113771770432981E-2</v>
+      </c>
+      <c r="O9" s="5">
         <v>-3.7874498534313801E-2</v>
       </c>
-      <c r="M9" s="8">
+      <c r="P9" s="6">
         <v>1.38E-2</v>
       </c>
-      <c r="N9" s="9">
-        <f t="shared" si="3"/>
+      <c r="Q9" s="7">
+        <f t="shared" si="4"/>
         <v>5.1674498534313801E-2</v>
       </c>
-      <c r="O9" s="38"/>
-    </row>
-    <row r="10" spans="1:15" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="36"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="11">
+      <c r="R9" s="30"/>
+    </row>
+    <row r="10" spans="1:18" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="28"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="9">
+        <v>0.118747674107782</v>
+      </c>
+      <c r="D10" s="10">
+        <v>0.09</v>
+      </c>
+      <c r="E10" s="11">
+        <f t="shared" si="0"/>
+        <v>2.8747674107782006E-2</v>
+      </c>
+      <c r="F10" s="9">
         <v>0.17544268776390201</v>
       </c>
-      <c r="D10" s="12">
+      <c r="G10" s="10">
         <v>0.19</v>
       </c>
-      <c r="E10" s="13">
-        <f t="shared" si="0"/>
+      <c r="H10" s="11">
+        <f t="shared" si="1"/>
         <v>1.4557312236097991E-2</v>
       </c>
-      <c r="F10" s="11">
-        <v>0.118747674107782</v>
-      </c>
-      <c r="G10" s="12">
-        <v>0.09</v>
-      </c>
-      <c r="H10" s="13">
-        <f t="shared" si="1"/>
-        <v>2.8747674107782006E-2</v>
-      </c>
-      <c r="I10" s="11">
+      <c r="I10" s="9">
         <v>1.18185321555018E-2</v>
       </c>
-      <c r="J10" s="12">
+      <c r="J10" s="10">
         <v>0.03</v>
       </c>
-      <c r="K10" s="13">
+      <c r="K10" s="11">
         <f t="shared" si="2"/>
         <v>1.81814678444982E-2</v>
       </c>
-      <c r="L10" s="11">
+      <c r="L10" s="41">
+        <v>0.47927424873639801</v>
+      </c>
+      <c r="M10" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="N10" s="12">
+        <f t="shared" si="3"/>
+        <v>0.22927424873639801</v>
+      </c>
+      <c r="O10" s="9">
         <v>6.2373645411950503E-6</v>
       </c>
-      <c r="M10" s="12">
+      <c r="P10" s="10">
         <v>0.02</v>
       </c>
-      <c r="N10" s="13">
-        <f t="shared" si="3"/>
+      <c r="Q10" s="11">
+        <f t="shared" si="4"/>
         <v>1.9993762635458805E-2</v>
       </c>
-      <c r="O10" s="39"/>
-    </row>
-    <row r="11" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="34"/>
-      <c r="B11" s="6" t="s">
+      <c r="R10" s="31"/>
+    </row>
+    <row r="11" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="26"/>
+      <c r="B11" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="5">
+        <v>8.2284331325647594E-2</v>
+      </c>
+      <c r="D11" s="6">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="E11" s="7">
+        <f t="shared" si="0"/>
+        <v>2.84331325647591E-4</v>
+      </c>
+      <c r="F11" s="5">
         <v>0.15688803681319699</v>
       </c>
-      <c r="D11" s="8">
+      <c r="G11" s="6">
         <v>0.15540000000000001</v>
       </c>
-      <c r="E11" s="9">
-        <f t="shared" si="0"/>
+      <c r="H11" s="7">
+        <f t="shared" si="1"/>
         <v>1.4880368131969801E-3</v>
       </c>
-      <c r="F11" s="7">
-        <v>8.2284331325647594E-2</v>
-      </c>
-      <c r="G11" s="8">
-        <v>8.2000000000000003E-2</v>
-      </c>
-      <c r="H11" s="9">
-        <f t="shared" si="1"/>
-        <v>2.84331325647591E-4</v>
-      </c>
-      <c r="I11" s="7">
+      <c r="I11" s="5">
         <v>0.14924812758622</v>
       </c>
-      <c r="J11" s="8">
+      <c r="J11" s="6">
         <v>0.14899999999999999</v>
       </c>
-      <c r="K11" s="9">
+      <c r="K11" s="7">
         <f t="shared" si="2"/>
         <v>2.4812758622000386E-4</v>
       </c>
-      <c r="L11" s="7">
+      <c r="L11" s="40">
+        <v>0.24958613489630799</v>
+      </c>
+      <c r="M11" s="6">
+        <v>0.24929999999999999</v>
+      </c>
+      <c r="N11" s="7">
+        <f t="shared" si="3"/>
+        <v>2.8613489630799349E-4</v>
+      </c>
+      <c r="O11" s="5">
         <v>0.27883247976933101</v>
       </c>
-      <c r="M11" s="8">
+      <c r="P11" s="6">
         <v>0.27779999999999999</v>
       </c>
-      <c r="N11" s="9">
-        <f t="shared" si="3"/>
+      <c r="Q11" s="7">
+        <f t="shared" si="4"/>
         <v>1.0324797693310184E-3</v>
       </c>
-      <c r="O11" s="38"/>
-    </row>
-    <row r="12" spans="1:15" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="36"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="11">
+      <c r="R11" s="30"/>
+    </row>
+    <row r="12" spans="1:18" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="28"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="9">
+        <v>4.5776209402427798E-2</v>
+      </c>
+      <c r="D12" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="E12" s="11">
+        <f t="shared" si="0"/>
+        <v>4.2237905975722051E-3</v>
+      </c>
+      <c r="F12" s="9">
         <v>0.30822356178779398</v>
       </c>
-      <c r="D12" s="12">
+      <c r="G12" s="10">
         <v>0.3</v>
       </c>
-      <c r="E12" s="13">
-        <f t="shared" si="0"/>
+      <c r="H12" s="11">
+        <f t="shared" si="1"/>
         <v>8.2235617877939871E-3</v>
       </c>
-      <c r="F12" s="11">
-        <v>4.5776209402427798E-2</v>
-      </c>
-      <c r="G12" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="H12" s="13">
-        <f t="shared" si="1"/>
-        <v>4.2237905975722051E-3</v>
-      </c>
-      <c r="I12" s="11">
+      <c r="I12" s="9">
         <v>0.40472037302124197</v>
       </c>
-      <c r="J12" s="12">
+      <c r="J12" s="10">
         <v>0.21</v>
       </c>
-      <c r="K12" s="14">
+      <c r="K12" s="12">
         <f t="shared" si="2"/>
         <v>0.19472037302124198</v>
       </c>
-      <c r="L12" s="11">
+      <c r="L12" s="41">
+        <v>6.0079759791246197E-2</v>
+      </c>
+      <c r="M12" s="10">
+        <v>0.23</v>
+      </c>
+      <c r="N12" s="12">
+        <f t="shared" si="3"/>
+        <v>0.16992024020875382</v>
+      </c>
+      <c r="O12" s="9">
         <v>5.76351764492299E-2</v>
       </c>
-      <c r="M12" s="12">
+      <c r="P12" s="10">
         <v>0.01</v>
       </c>
-      <c r="N12" s="15">
-        <f t="shared" si="3"/>
+      <c r="Q12" s="13">
+        <f t="shared" si="4"/>
         <v>4.7635176449229898E-2</v>
       </c>
-      <c r="O12" s="39"/>
-    </row>
-    <row r="13" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="34"/>
-      <c r="B13" s="6" t="s">
+      <c r="R12" s="31"/>
+    </row>
+    <row r="13" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="26"/>
+      <c r="B13" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="5">
+        <v>7.6275101175186405E-2</v>
+      </c>
+      <c r="D13" s="6">
+        <v>8.9200000000000002E-2</v>
+      </c>
+      <c r="E13" s="7">
+        <f t="shared" si="0"/>
+        <v>1.2924898824813597E-2</v>
+      </c>
+      <c r="F13" s="5">
         <v>6.2064527773984302E-2</v>
       </c>
-      <c r="D13" s="8">
+      <c r="G13" s="6">
         <v>6.7799999999999999E-2</v>
       </c>
-      <c r="E13" s="9">
-        <f t="shared" si="0"/>
+      <c r="H13" s="7">
+        <f t="shared" si="1"/>
         <v>5.7354722260156976E-3</v>
       </c>
-      <c r="F13" s="7">
-        <v>7.6275101175186405E-2</v>
-      </c>
-      <c r="G13" s="8">
-        <v>8.9200000000000002E-2</v>
-      </c>
-      <c r="H13" s="9">
-        <f t="shared" si="1"/>
-        <v>1.2924898824813597E-2</v>
-      </c>
-      <c r="I13" s="7">
+      <c r="I13" s="5">
         <v>4.5876852227311297E-2</v>
       </c>
-      <c r="J13" s="8">
+      <c r="J13" s="6">
         <v>8.48E-2</v>
       </c>
-      <c r="K13" s="9">
+      <c r="K13" s="7">
         <f t="shared" si="2"/>
         <v>3.8923147772688703E-2</v>
       </c>
-      <c r="L13" s="7">
+      <c r="L13" s="40">
+        <v>0.110099721320482</v>
+      </c>
+      <c r="M13" s="6">
+        <v>0.1084</v>
+      </c>
+      <c r="N13" s="7">
+        <f t="shared" si="3"/>
+        <v>1.6997213204820033E-3</v>
+      </c>
+      <c r="O13" s="5">
         <v>0.198052601092432</v>
       </c>
-      <c r="M13" s="8">
+      <c r="P13" s="6">
         <v>0.19769999999999999</v>
       </c>
-      <c r="N13" s="9">
-        <f t="shared" si="3"/>
+      <c r="Q13" s="7">
+        <f t="shared" si="4"/>
         <v>3.5260109243201443E-4</v>
       </c>
-      <c r="O13" s="38"/>
-    </row>
-    <row r="14" spans="1:15" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="36"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="11">
+      <c r="R13" s="30"/>
+    </row>
+    <row r="14" spans="1:18" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="28"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="9">
+        <v>5.5191743245149902E-2</v>
+      </c>
+      <c r="D14" s="10">
+        <v>0.09</v>
+      </c>
+      <c r="E14" s="11">
+        <f t="shared" si="0"/>
+        <v>3.4808256754850095E-2</v>
+      </c>
+      <c r="F14" s="9">
         <v>2.2347956078913E-2</v>
       </c>
-      <c r="D14" s="12">
+      <c r="G14" s="10">
         <v>0.03</v>
       </c>
-      <c r="E14" s="13">
-        <f t="shared" si="0"/>
+      <c r="H14" s="11">
+        <f t="shared" si="1"/>
         <v>7.6520439210869991E-3</v>
       </c>
-      <c r="F14" s="11">
-        <v>5.5191743245149902E-2</v>
-      </c>
-      <c r="G14" s="12">
-        <v>0.09</v>
-      </c>
-      <c r="H14" s="13">
-        <f t="shared" si="1"/>
-        <v>3.4808256754850095E-2</v>
-      </c>
-      <c r="I14" s="11">
+      <c r="I14" s="9">
         <v>0.176280859632199</v>
       </c>
-      <c r="J14" s="12">
+      <c r="J14" s="10">
         <v>0.17</v>
       </c>
-      <c r="K14" s="13">
+      <c r="K14" s="11">
         <f t="shared" si="2"/>
         <v>6.2808596321989874E-3</v>
       </c>
-      <c r="L14" s="11">
+      <c r="L14" s="41">
+        <v>6.0079759791246197E-2</v>
+      </c>
+      <c r="M14" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="N14" s="13">
+        <f t="shared" si="3"/>
+        <v>4.00797597912462E-2</v>
+      </c>
+      <c r="O14" s="9">
         <v>0.31429282806223302</v>
       </c>
-      <c r="M14" s="12">
+      <c r="P14" s="10">
         <v>0.02</v>
       </c>
-      <c r="N14" s="14">
-        <f t="shared" si="3"/>
+      <c r="Q14" s="12">
+        <f t="shared" si="4"/>
         <v>0.294292828062233</v>
       </c>
-      <c r="O14" s="39"/>
-    </row>
-    <row r="15" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="34"/>
-      <c r="B15" s="6" t="s">
+      <c r="R14" s="31"/>
+    </row>
+    <row r="15" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="26"/>
+      <c r="B15" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="5">
+        <v>7.67448166240568E-2</v>
+      </c>
+      <c r="D15" s="6">
+        <v>0.1075</v>
+      </c>
+      <c r="E15" s="7">
+        <f t="shared" si="0"/>
+        <v>3.0755183375943199E-2</v>
+      </c>
+      <c r="F15" s="5">
         <v>6.2230312397937797E-2</v>
       </c>
-      <c r="D15" s="8">
+      <c r="G15" s="6">
         <v>8.1900000000000001E-2</v>
       </c>
-      <c r="E15" s="9">
-        <f t="shared" si="0"/>
+      <c r="H15" s="7">
+        <f t="shared" si="1"/>
         <v>1.9669687602062204E-2</v>
       </c>
-      <c r="F15" s="7">
-        <v>7.67448166240568E-2</v>
-      </c>
-      <c r="G15" s="8">
-        <v>0.1075</v>
-      </c>
-      <c r="H15" s="9">
-        <f t="shared" si="1"/>
-        <v>3.0755183375943199E-2</v>
-      </c>
-      <c r="I15" s="7">
+      <c r="I15" s="5">
         <v>4.9792076474601002E-2</v>
       </c>
-      <c r="J15" s="8">
+      <c r="J15" s="6">
         <v>8.48E-2</v>
       </c>
-      <c r="K15" s="9">
+      <c r="K15" s="7">
         <f t="shared" si="2"/>
         <v>3.5007923525398998E-2</v>
       </c>
-      <c r="L15" s="7">
+      <c r="L15" s="40">
+        <v>0.124644304529135</v>
+      </c>
+      <c r="M15" s="6">
+        <v>0.15140000000000001</v>
+      </c>
+      <c r="N15" s="15">
+        <f t="shared" si="3"/>
+        <v>2.675569547086501E-2</v>
+      </c>
+      <c r="O15" s="5">
         <v>0.198194209321578</v>
       </c>
-      <c r="M15" s="8">
+      <c r="P15" s="6">
         <v>0.19550000000000001</v>
       </c>
-      <c r="N15" s="9">
-        <f t="shared" si="3"/>
+      <c r="Q15" s="7">
+        <f t="shared" si="4"/>
         <v>2.6942093215779894E-3</v>
       </c>
-      <c r="O15" s="38"/>
-    </row>
-    <row r="16" spans="1:15" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="36"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="11">
+      <c r="R15" s="30"/>
+    </row>
+    <row r="16" spans="1:18" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="28"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="9">
+        <v>5.5868826999371297E-2</v>
+      </c>
+      <c r="D16" s="10">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E16" s="11">
+        <f t="shared" si="0"/>
+        <v>8.4131173000628723E-2</v>
+      </c>
+      <c r="F16" s="9">
         <v>2.25515488068962E-2</v>
       </c>
-      <c r="D16" s="12">
+      <c r="G16" s="10">
         <v>0.06</v>
       </c>
-      <c r="E16" s="13">
-        <f t="shared" si="0"/>
+      <c r="H16" s="11">
+        <f t="shared" si="1"/>
         <v>3.7448451193103797E-2</v>
       </c>
-      <c r="F16" s="11">
-        <v>5.5868826999371297E-2</v>
-      </c>
-      <c r="G16" s="12">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="H16" s="13">
-        <f t="shared" si="1"/>
-        <v>8.4131173000628723E-2</v>
-      </c>
-      <c r="I16" s="11">
+      <c r="I16" s="9">
         <v>0.18801784056113799</v>
       </c>
-      <c r="J16" s="12">
+      <c r="J16" s="10">
         <v>0.15</v>
       </c>
-      <c r="K16" s="13">
+      <c r="K16" s="11">
         <f t="shared" si="2"/>
         <v>3.8017840561137994E-2</v>
       </c>
-      <c r="L16" s="11">
+      <c r="L16" s="41">
+        <v>8.7605977197867599E-2</v>
+      </c>
+      <c r="M16" s="10">
+        <v>0.09</v>
+      </c>
+      <c r="N16" s="13">
+        <f t="shared" si="3"/>
+        <v>2.3940228021323978E-3</v>
+      </c>
+      <c r="O16" s="9">
         <v>0.31361082307350602</v>
       </c>
-      <c r="M16" s="12">
+      <c r="P16" s="10">
         <v>0.03</v>
       </c>
-      <c r="N16" s="14">
-        <f t="shared" si="3"/>
+      <c r="Q16" s="12">
+        <f t="shared" si="4"/>
         <v>0.28361082307350605</v>
       </c>
-      <c r="O16" s="39"/>
-    </row>
-    <row r="17" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="34"/>
-      <c r="B17" s="6" t="s">
+      <c r="R16" s="31"/>
+    </row>
+    <row r="17" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="26"/>
+      <c r="B17" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="5">
+        <v>0.18824599113899401</v>
+      </c>
+      <c r="D17" s="6">
+        <v>8.3400000000000002E-2</v>
+      </c>
+      <c r="E17" s="14">
+        <f t="shared" si="0"/>
+        <v>0.10484599113899401</v>
+      </c>
+      <c r="F17" s="5">
         <v>0.14653573167148901</v>
       </c>
-      <c r="D17" s="8">
+      <c r="G17" s="6">
         <v>0.14249999999999999</v>
       </c>
-      <c r="E17" s="9">
-        <f t="shared" si="0"/>
+      <c r="H17" s="7">
+        <f t="shared" si="1"/>
         <v>4.0357316714890179E-3</v>
       </c>
-      <c r="F17" s="7">
-        <v>0.18824599113899401</v>
-      </c>
-      <c r="G17" s="8">
-        <v>8.3400000000000002E-2</v>
-      </c>
-      <c r="H17" s="16">
-        <f t="shared" si="1"/>
-        <v>0.10484599113899401</v>
-      </c>
-      <c r="I17" s="7">
+      <c r="I17" s="5">
         <v>0.12793024606278</v>
       </c>
-      <c r="J17" s="8">
+      <c r="J17" s="6">
         <v>0.15010000000000001</v>
       </c>
-      <c r="K17" s="17">
+      <c r="K17" s="15">
         <f t="shared" si="2"/>
         <v>2.216975393722001E-2</v>
       </c>
-      <c r="L17" s="7">
+      <c r="L17" s="40">
+        <v>0.224329224230567</v>
+      </c>
+      <c r="M17" s="6">
+        <v>0.24929999999999999</v>
+      </c>
+      <c r="N17" s="15">
+        <f t="shared" si="3"/>
+        <v>2.497077576943299E-2</v>
+      </c>
+      <c r="O17" s="5">
         <v>0.16266525076287899</v>
       </c>
-      <c r="M17" s="8">
+      <c r="P17" s="6">
         <v>0.15459999999999999</v>
       </c>
-      <c r="N17" s="17">
-        <f t="shared" si="3"/>
+      <c r="Q17" s="15">
+        <f t="shared" si="4"/>
         <v>8.065250762879006E-3</v>
       </c>
-      <c r="O17" s="38"/>
-    </row>
-    <row r="18" spans="1:15" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="36"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="11">
+      <c r="R17" s="30"/>
+    </row>
+    <row r="18" spans="1:18" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="28"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="9">
+        <v>0.153339677183502</v>
+      </c>
+      <c r="D18" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="E18" s="12">
+        <f t="shared" si="0"/>
+        <v>0.14333967718350199</v>
+      </c>
+      <c r="F18" s="9">
         <v>0.374113176461631</v>
       </c>
-      <c r="D18" s="12">
+      <c r="G18" s="10">
         <v>0.41</v>
       </c>
-      <c r="E18" s="13">
-        <f t="shared" si="0"/>
+      <c r="H18" s="11">
+        <f t="shared" si="1"/>
         <v>3.5886823538368973E-2</v>
       </c>
-      <c r="F18" s="11">
-        <v>0.153339677183502</v>
-      </c>
-      <c r="G18" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="H18" s="14">
-        <f t="shared" si="1"/>
-        <v>0.14333967718350199</v>
-      </c>
-      <c r="I18" s="11">
+      <c r="I18" s="9">
         <v>0.49992833869969699</v>
       </c>
-      <c r="J18" s="12">
+      <c r="J18" s="10">
         <v>0.16</v>
       </c>
-      <c r="K18" s="14">
+      <c r="K18" s="12">
         <f t="shared" si="2"/>
         <v>0.33992833869969696</v>
       </c>
-      <c r="L18" s="11">
+      <c r="L18" s="41">
+        <v>0.49996839888077199</v>
+      </c>
+      <c r="M18" s="10">
+        <v>0.23</v>
+      </c>
+      <c r="N18" s="12">
+        <f t="shared" si="3"/>
+        <v>0.26996839888077195</v>
+      </c>
+      <c r="O18" s="9">
         <v>0.499027732196347</v>
       </c>
-      <c r="M18" s="12">
+      <c r="P18" s="10">
         <v>0.35</v>
       </c>
-      <c r="N18" s="14">
-        <f t="shared" si="3"/>
+      <c r="Q18" s="12">
+        <f t="shared" si="4"/>
         <v>0.14902773219634702</v>
       </c>
-      <c r="O18" s="39"/>
-    </row>
-    <row r="19" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="34"/>
-      <c r="B19" s="6" t="s">
+      <c r="R18" s="31"/>
+    </row>
+    <row r="19" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="26"/>
+      <c r="B19" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="5">
+        <v>0.18824599113899401</v>
+      </c>
+      <c r="D19" s="6">
+        <v>0.1371</v>
+      </c>
+      <c r="E19" s="7">
+        <f t="shared" si="0"/>
+        <v>5.1145991138994013E-2</v>
+      </c>
+      <c r="F19" s="5">
         <v>0.147075320909933</v>
       </c>
-      <c r="D19" s="8">
+      <c r="G19" s="6">
         <v>0.14510000000000001</v>
       </c>
-      <c r="E19" s="9">
-        <f t="shared" si="0"/>
+      <c r="H19" s="7">
+        <f t="shared" si="1"/>
         <v>1.9753209099329927E-3</v>
       </c>
-      <c r="F19" s="7">
-        <v>0.18824599113899401</v>
-      </c>
-      <c r="G19" s="8">
-        <v>0.1371</v>
-      </c>
-      <c r="H19" s="9">
-        <f t="shared" si="1"/>
-        <v>5.1145991138994013E-2</v>
-      </c>
-      <c r="I19" s="7">
+      <c r="I19" s="5">
         <v>0.12793024606278</v>
       </c>
-      <c r="J19" s="8">
+      <c r="J19" s="6">
         <v>0.1429</v>
       </c>
-      <c r="K19" s="9">
+      <c r="K19" s="7">
         <f t="shared" si="2"/>
         <v>1.4969753937219998E-2</v>
       </c>
-      <c r="L19" s="7">
+      <c r="L19" s="40">
+        <v>0.224329224230567</v>
+      </c>
+      <c r="M19" s="6">
+        <v>0.2467</v>
+      </c>
+      <c r="N19" s="7">
+        <f t="shared" si="3"/>
+        <v>2.2370775769432999E-2</v>
+      </c>
+      <c r="O19" s="5">
         <v>0.16266525076287899</v>
       </c>
-      <c r="M19" s="8">
+      <c r="P19" s="6">
         <v>0.1615</v>
       </c>
-      <c r="N19" s="9">
-        <f t="shared" si="3"/>
+      <c r="Q19" s="7">
+        <f t="shared" si="4"/>
         <v>1.1652507628789888E-3</v>
       </c>
-      <c r="O19" s="38"/>
-    </row>
-    <row r="20" spans="1:15" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="36"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="19">
+      <c r="R19" s="30"/>
+    </row>
+    <row r="20" spans="1:18" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="28"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="17">
+        <v>0.153339677183502</v>
+      </c>
+      <c r="D20" s="18">
+        <v>0.08</v>
+      </c>
+      <c r="E20" s="19">
+        <f t="shared" si="0"/>
+        <v>7.3339677183501997E-2</v>
+      </c>
+      <c r="F20" s="17">
         <v>0.30304635861941598</v>
       </c>
-      <c r="D20" s="20">
+      <c r="G20" s="18">
         <v>0.31</v>
       </c>
-      <c r="E20" s="21">
-        <f t="shared" si="0"/>
+      <c r="H20" s="19">
+        <f t="shared" si="1"/>
         <v>6.9536413805840191E-3</v>
       </c>
-      <c r="F20" s="19">
-        <v>0.153339677183502</v>
-      </c>
-      <c r="G20" s="20">
-        <v>0.08</v>
-      </c>
-      <c r="H20" s="21">
-        <f t="shared" si="1"/>
-        <v>7.3339677183501997E-2</v>
-      </c>
-      <c r="I20" s="19">
+      <c r="I20" s="17">
         <v>0.49992833869969699</v>
       </c>
-      <c r="J20" s="20">
+      <c r="J20" s="18">
         <v>0.19</v>
       </c>
-      <c r="K20" s="22">
+      <c r="K20" s="20">
         <f t="shared" si="2"/>
         <v>0.30992833869969699</v>
       </c>
-      <c r="L20" s="19">
+      <c r="L20" s="42">
+        <v>0.49996839888077199</v>
+      </c>
+      <c r="M20" s="18">
+        <v>0.25</v>
+      </c>
+      <c r="N20" s="20">
+        <f t="shared" si="3"/>
+        <v>0.24996839888077199</v>
+      </c>
+      <c r="O20" s="17">
         <v>0.499027732196347</v>
       </c>
-      <c r="M20" s="20">
+      <c r="P20" s="18">
         <v>0.47</v>
       </c>
-      <c r="N20" s="23">
-        <f t="shared" si="3"/>
+      <c r="Q20" s="21">
+        <f t="shared" si="4"/>
         <v>2.9027732196347023E-2</v>
       </c>
-      <c r="O20" s="39"/>
-    </row>
-    <row r="21" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="34"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="38"/>
-      <c r="L21" s="38"/>
-      <c r="M21" s="38"/>
-      <c r="N21" s="38"/>
-      <c r="O21" s="38"/>
+      <c r="R20" s="31"/>
+    </row>
+    <row r="21" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="26"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="30"/>
+      <c r="N21" s="30"/>
+      <c r="O21" s="30"/>
+      <c r="P21" s="30"/>
+      <c r="Q21" s="30"/>
+      <c r="R21" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2:K2"/>
+  <mergeCells count="11">
     <mergeCell ref="L2:N2"/>
     <mergeCell ref="L3:N3"/>
     <mergeCell ref="I3:K3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="O2:Q2"/>
     <mergeCell ref="F3:H3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C3:E3"/>
   </mergeCells>
-  <conditionalFormatting sqref="E5:E20">
+  <conditionalFormatting sqref="H5:H20">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="0.1"/>
+        <color rgb="FF92D050"/>
+        <color theme="0"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K5:K20">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -1609,7 +1815,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5:H20">
+  <conditionalFormatting sqref="N5:N20">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -1619,7 +1825,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K5:K20">
+  <conditionalFormatting sqref="Q5:Q20">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -1629,7 +1835,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N5:N20">
+  <conditionalFormatting sqref="E5:E20">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="0"/>

--- a/resultater.xlsx
+++ b/resultater.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26311"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ba8910\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Peter/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="14980"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="31">
   <si>
     <t>Strategi</t>
   </si>
@@ -113,6 +116,30 @@
   </si>
   <si>
     <t>N = 3</t>
+  </si>
+  <si>
+    <t>Gamma = 1</t>
+  </si>
+  <si>
+    <t>Gamma = Estimate</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Sharpe</t>
+  </si>
+  <si>
+    <t>P-værdi</t>
+  </si>
+  <si>
+    <t>Gennemsnitlig afvigelse</t>
+  </si>
+  <si>
+    <t>FF 4-factor</t>
+  </si>
+  <si>
+    <t>N = 24</t>
   </si>
 </sst>
 </file>
@@ -194,11 +221,11 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -207,7 +234,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -215,17 +242,17 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -235,7 +262,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -243,12 +270,12 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -257,31 +284,31 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -289,23 +316,23 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -313,7 +340,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -354,9 +381,6 @@
     <xf numFmtId="165" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -390,51 +414,102 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -715,1088 +790,1541 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R21"/>
+  <dimension ref="A1:U28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S24" sqref="S24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V17" sqref="V17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="18.85546875" style="3" customWidth="1"/>
-    <col min="3" max="17" width="8.5703125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="8.83203125" style="1"/>
+    <col min="2" max="2" width="18.83203125" style="3" customWidth="1"/>
+    <col min="3" max="20" width="8.5" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26"/>
-      <c r="B1" s="27"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26"/>
-    </row>
-    <row r="2" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
-      <c r="B2" s="35" t="s">
+    <row r="1" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="38"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="40"/>
+      <c r="U1" s="41"/>
+    </row>
+    <row r="2" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="30"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="T2" s="26"/>
+      <c r="U2" s="31"/>
+    </row>
+    <row r="3" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="30"/>
+      <c r="B3" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C3" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="38"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="37" t="s">
+      <c r="D3" s="56"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="38"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="37" t="s">
+      <c r="G3" s="56"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="38"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="37" t="s">
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="38"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="37" t="s">
+      <c r="M3" s="56"/>
+      <c r="N3" s="57"/>
+      <c r="O3" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="39"/>
-      <c r="R2" s="30"/>
-    </row>
-    <row r="3" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="26"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="32" t="s">
+      <c r="P3" s="56"/>
+      <c r="Q3" s="57"/>
+      <c r="R3" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="S3" s="56"/>
+      <c r="T3" s="57"/>
+      <c r="U3" s="31"/>
+    </row>
+    <row r="4" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="30"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="33"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="32" t="s">
+      <c r="D4" s="51"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="33"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="32" t="s">
+      <c r="G4" s="51"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="33"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="32" t="s">
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="33"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="32" t="s">
+      <c r="M4" s="51"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="34"/>
-      <c r="R3" s="30"/>
-    </row>
-    <row r="4" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="26"/>
-      <c r="B4" s="22" t="s">
+      <c r="P4" s="51"/>
+      <c r="Q4" s="52"/>
+      <c r="R4" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="S4" s="51"/>
+      <c r="T4" s="52"/>
+      <c r="U4" s="31"/>
+    </row>
+    <row r="5" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="30"/>
+      <c r="B5" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C5" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D5" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="E5" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F5" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="24" t="s">
+      <c r="G5" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="25" t="s">
+      <c r="H5" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="23" t="s">
+      <c r="I5" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="24" t="s">
+      <c r="J5" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="25" t="s">
+      <c r="K5" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="23" t="s">
+      <c r="L5" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="24" t="s">
+      <c r="M5" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="25" t="s">
+      <c r="N5" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="O4" s="23" t="s">
+      <c r="O5" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="P4" s="24" t="s">
+      <c r="P5" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="Q4" s="25" t="s">
+      <c r="Q5" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="R4" s="30"/>
-    </row>
-    <row r="5" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="26"/>
-      <c r="B5" s="4" t="s">
+      <c r="R5" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="S5" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="T5" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="U5" s="31"/>
+    </row>
+    <row r="6" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="30"/>
+      <c r="B6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="5">
-        <v>0.18827450162878401</v>
-      </c>
-      <c r="D5" s="6">
+      <c r="C6" s="5">
+        <v>0.187619631812872</v>
+      </c>
+      <c r="D6" s="6">
         <v>0.18759999999999999</v>
       </c>
-      <c r="E5" s="7">
-        <f>ABS(C5-D5)</f>
-        <v>6.7450162878401887E-4</v>
-      </c>
-      <c r="F5" s="5">
-        <v>0.13673787441253199</v>
-      </c>
-      <c r="G5" s="6">
+      <c r="E6" s="7">
+        <f>ABS(C6-D6)</f>
+        <v>1.9631812872011878E-5</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0.13655640402811001</v>
+      </c>
+      <c r="G6" s="6">
         <v>0.1353</v>
       </c>
-      <c r="H5" s="7">
-        <f>ABS(F5-G5)</f>
-        <v>1.4378744125319864E-3</v>
-      </c>
-      <c r="I5" s="5">
-        <v>0.127914366357295</v>
-      </c>
-      <c r="J5" s="6">
+      <c r="H6" s="7">
+        <f>ABS(F6-G6)</f>
+        <v>1.2564040281100031E-3</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0.12766718860679799</v>
+      </c>
+      <c r="J6" s="6">
         <v>0.12770000000000001</v>
       </c>
-      <c r="K5" s="7">
-        <f>ABS(I5-J5)</f>
-        <v>2.1436635729499276E-4</v>
-      </c>
-      <c r="L5" s="40">
-        <v>0.22432337504491801</v>
-      </c>
-      <c r="M5" s="6">
+      <c r="K6" s="14">
+        <f>ABS(I6-J6)</f>
+        <v>3.28113932020202E-5</v>
+      </c>
+      <c r="L6" s="27">
+        <v>0.22402566638680799</v>
+      </c>
+      <c r="M6" s="6">
         <v>0.224</v>
       </c>
-      <c r="N5" s="7">
-        <f>ABS(L5-M5)</f>
-        <v>3.2337504491800062E-4</v>
-      </c>
-      <c r="O5" s="5">
-        <v>0.162486338242986</v>
-      </c>
-      <c r="P5" s="6">
+      <c r="N6" s="14">
+        <f>ABS(L6-M6)</f>
+        <v>2.5666386807982056E-5</v>
+      </c>
+      <c r="O6" s="5">
+        <v>0.16226671507423701</v>
+      </c>
+      <c r="P6" s="6">
         <v>0.1623</v>
       </c>
-      <c r="Q5" s="7">
-        <f>ABS(O5-P5)</f>
-        <v>1.8633824298600055E-4</v>
-      </c>
-      <c r="R5" s="30"/>
-    </row>
-    <row r="6" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="26"/>
-      <c r="B6" s="4" t="s">
+      <c r="Q6" s="14">
+        <f>ABS(O6-P6)</f>
+        <v>3.3284925762988582E-5</v>
+      </c>
+      <c r="R6" s="5">
+        <v>0.17525968083316201</v>
+      </c>
+      <c r="S6" s="6">
+        <v>0.17530000000000001</v>
+      </c>
+      <c r="T6" s="14">
+        <f>ABS(R6-S6)</f>
+        <v>4.0319166837998743E-5</v>
+      </c>
+      <c r="U6" s="31"/>
+    </row>
+    <row r="7" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="30"/>
+      <c r="B7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C7" s="5">
         <v>0.40204913362945499</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D7" s="6">
         <v>0.38479999999999998</v>
       </c>
-      <c r="E6" s="7">
-        <f t="shared" ref="E6:E20" si="0">ABS(C6-D6)</f>
+      <c r="E7" s="7">
+        <f t="shared" ref="E7:E21" si="0">ABS(C7-D7)</f>
         <v>1.7249133629455016E-2</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F7" s="5">
         <v>0.21421373046280001</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G7" s="6">
         <v>0.21240000000000001</v>
       </c>
-      <c r="H6" s="7">
-        <f t="shared" ref="H6:H20" si="1">ABS(F6-G6)</f>
+      <c r="H7" s="7">
+        <f t="shared" ref="H7:H21" si="1">ABS(F7-G7)</f>
         <v>1.8137304628000062E-3</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I7" s="5">
         <v>0.21318937426546899</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J7" s="6">
         <v>0.20899999999999999</v>
       </c>
-      <c r="K6" s="7">
-        <f t="shared" ref="K6:K20" si="2">ABS(I6-J6)</f>
+      <c r="K7" s="14">
+        <f t="shared" ref="K7:K21" si="2">ABS(I7-J7)</f>
         <v>4.1893742654690036E-3</v>
       </c>
-      <c r="L6" s="40">
+      <c r="L7" s="27">
         <v>0.286599366311036</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M7" s="6">
         <v>0.28510000000000002</v>
       </c>
-      <c r="N6" s="7">
-        <f t="shared" ref="N6:N20" si="3">ABS(L6-M6)</f>
+      <c r="N7" s="14">
+        <f t="shared" ref="N7:N21" si="3">ABS(L7-M7)</f>
         <v>1.4993663110359767E-3</v>
       </c>
-      <c r="O6" s="5">
-        <v>0.52554363225341905</v>
-      </c>
-      <c r="P6" s="6">
+      <c r="O7" s="5">
+        <v>0.52542415419366795</v>
+      </c>
+      <c r="P7" s="6">
         <v>0.50980000000000003</v>
       </c>
-      <c r="Q6" s="7">
-        <f t="shared" ref="Q6:Q34" si="4">ABS(O6-P6)</f>
-        <v>1.5743632253419015E-2</v>
-      </c>
-      <c r="R6" s="30"/>
-    </row>
-    <row r="7" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="26"/>
-      <c r="B7" s="4" t="s">
+      <c r="Q7" s="14">
+        <f t="shared" ref="Q7:Q21" si="4">ABS(O7-P7)</f>
+        <v>1.5624154193667916E-2</v>
+      </c>
+      <c r="R7" s="5">
+        <v>0.55522091152052599</v>
+      </c>
+      <c r="S7" s="6">
+        <v>0.53639999999999999</v>
+      </c>
+      <c r="T7" s="14">
+        <f t="shared" ref="T7:T21" si="5">ABS(R7-S7)</f>
+        <v>1.8820911520526007E-2</v>
+      </c>
+      <c r="U7" s="31"/>
+    </row>
+    <row r="8" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="30"/>
+      <c r="B8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="5">
-        <v>7.9694362287821993E-2</v>
-      </c>
-      <c r="D7" s="6">
+      <c r="C8" s="5">
+        <v>7.9417163666079996E-2</v>
+      </c>
+      <c r="D8" s="6">
         <v>7.9399999999999998E-2</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E8" s="7">
         <f t="shared" si="0"/>
-        <v>2.9436228782199481E-4</v>
-      </c>
-      <c r="F7" s="5">
-        <v>7.0055837753933606E-2</v>
-      </c>
-      <c r="G7" s="6">
+        <v>1.7163666079997308E-5</v>
+      </c>
+      <c r="F8" s="5">
+        <v>6.9962863807751602E-2</v>
+      </c>
+      <c r="G8" s="6">
         <v>6.7900000000000002E-2</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H8" s="7">
         <f t="shared" si="1"/>
-        <v>2.1558377539336038E-3</v>
-      </c>
-      <c r="I7" s="5">
-        <v>-7.2049133870627405E-2</v>
-      </c>
-      <c r="J7" s="6">
+        <v>2.0628638077515998E-3</v>
+      </c>
+      <c r="I8" s="5">
+        <v>-7.1909908361068794E-2</v>
+      </c>
+      <c r="J8" s="6">
         <v>-3.32E-2</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K8" s="14">
         <f t="shared" si="2"/>
-        <v>3.8849133870627404E-2</v>
-      </c>
-      <c r="L7" s="40">
-        <v>0.21888058720178599</v>
-      </c>
-      <c r="M7" s="6">
+        <v>3.8709908361068794E-2</v>
+      </c>
+      <c r="L8" s="27">
+        <v>0.21859010188838901</v>
+      </c>
+      <c r="M8" s="6">
         <v>0.21859999999999999</v>
       </c>
-      <c r="N7" s="7">
+      <c r="N8" s="14">
         <f t="shared" si="3"/>
-        <v>2.8058720178600338E-4</v>
-      </c>
-      <c r="O7" s="5">
-        <v>-3.7787832950351603E-2</v>
-      </c>
-      <c r="P7" s="6">
+        <v>9.8981116109786438E-6</v>
+      </c>
+      <c r="O8" s="5">
+        <v>-6.8357542398200799E-2</v>
+      </c>
+      <c r="P8" s="6">
         <v>1.2800000000000001E-2</v>
       </c>
-      <c r="Q7" s="7">
+      <c r="Q8" s="14">
         <f t="shared" si="4"/>
-        <v>5.0587832950351602E-2</v>
-      </c>
-      <c r="R7" s="30"/>
-    </row>
-    <row r="8" spans="1:18" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="28"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9">
-        <v>0.11911923806013799</v>
-      </c>
-      <c r="D8" s="10">
+        <v>8.1157542398200805E-2</v>
+      </c>
+      <c r="R8" s="5">
+        <v>-3.1155899377385199E-3</v>
+      </c>
+      <c r="S8" s="6">
+        <v>0.18410000000000001</v>
+      </c>
+      <c r="T8" s="58">
+        <f t="shared" si="5"/>
+        <v>0.18721558993773854</v>
+      </c>
+      <c r="U8" s="31"/>
+    </row>
+    <row r="9" spans="1:21" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="43"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="9">
         <v>0.12</v>
       </c>
-      <c r="E8" s="11">
+      <c r="D9" s="10">
+        <v>0.12</v>
+      </c>
+      <c r="E9" s="11">
         <f t="shared" si="0"/>
-        <v>8.8076193986200146E-4</v>
-      </c>
-      <c r="F8" s="9">
-        <v>0.175370858899908</v>
-      </c>
-      <c r="G8" s="10">
+        <v>0</v>
+      </c>
+      <c r="F9" s="9">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="G9" s="10">
         <v>0.17</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H9" s="11">
         <f t="shared" si="1"/>
-        <v>5.3708588999079876E-3</v>
-      </c>
-      <c r="I8" s="9">
-        <v>1.1753945846790599E-2</v>
-      </c>
-      <c r="J8" s="10">
+        <v>4.9999999999999767E-3</v>
+      </c>
+      <c r="I9" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="J9" s="10">
         <v>0.03</v>
       </c>
-      <c r="K8" s="11">
+      <c r="K9" s="13">
         <f t="shared" si="2"/>
-        <v>1.8246054153209401E-2</v>
-      </c>
-      <c r="L8" s="41">
-        <v>0.47061249532170601</v>
-      </c>
-      <c r="M8" s="10">
+        <v>1.9999999999999997E-2</v>
+      </c>
+      <c r="L9" s="28">
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="M9" s="10">
         <v>0.46</v>
       </c>
-      <c r="N8" s="11">
+      <c r="N9" s="13">
         <f t="shared" si="3"/>
-        <v>1.0612495321705995E-2</v>
-      </c>
-      <c r="O8" s="9">
+        <v>1.0000000000000009E-3</v>
+      </c>
+      <c r="O9" s="9">
         <v>6.65361696927657E-6</v>
       </c>
-      <c r="P8" s="10">
+      <c r="P9" s="10">
         <v>0.02</v>
       </c>
-      <c r="Q8" s="11">
+      <c r="Q9" s="13">
         <f t="shared" si="4"/>
         <v>1.9993346383030724E-2</v>
       </c>
-      <c r="R8" s="31"/>
-    </row>
-    <row r="9" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="26"/>
-      <c r="B9" s="4" t="s">
+      <c r="R9" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="S9" s="10">
+        <v>0.45</v>
+      </c>
+      <c r="T9" s="12">
+        <f t="shared" si="5"/>
+        <v>0.44</v>
+      </c>
+      <c r="U9" s="44"/>
+    </row>
+    <row r="10" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="30"/>
+      <c r="B10" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="5">
-        <v>7.9668538352175799E-2</v>
-      </c>
-      <c r="D9" s="6">
+      <c r="C10" s="5">
+        <v>8.0780221415720804E-2</v>
+      </c>
+      <c r="D10" s="6">
         <v>8.1100000000000005E-2</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E10" s="7">
         <f t="shared" si="0"/>
-        <v>1.4314616478242059E-3</v>
-      </c>
-      <c r="F9" s="5">
-        <v>7.0078741574712403E-2</v>
-      </c>
-      <c r="G9" s="6">
+        <v>3.1977858427920114E-4</v>
+      </c>
+      <c r="F10" s="5">
+        <v>7.2398563244172903E-2</v>
+      </c>
+      <c r="G10" s="6">
         <v>7.1900000000000006E-2</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H10" s="7">
         <f t="shared" si="1"/>
-        <v>1.821258425287603E-3</v>
-      </c>
-      <c r="I9" s="5">
-        <v>-7.1863051607390302E-2</v>
-      </c>
-      <c r="J9" s="6">
+        <v>4.9856324417289766E-4</v>
+      </c>
+      <c r="I10" s="5">
+        <v>-5.4194884318953203E-2</v>
+      </c>
+      <c r="J10" s="6">
         <v>-2.9700000000000001E-2</v>
       </c>
-      <c r="K9" s="7">
+      <c r="K10" s="14">
         <f t="shared" si="2"/>
-        <v>4.2163051607390298E-2</v>
-      </c>
-      <c r="L9" s="40">
-        <v>0.22048622822956701</v>
-      </c>
-      <c r="M9" s="6">
+        <v>2.4494884318953202E-2</v>
+      </c>
+      <c r="L10" s="27">
+        <v>0.25335082359364602</v>
+      </c>
+      <c r="M10" s="6">
         <v>0.25359999999999999</v>
       </c>
-      <c r="N9" s="7">
+      <c r="N10" s="14">
         <f t="shared" si="3"/>
-        <v>3.3113771770432981E-2</v>
-      </c>
-      <c r="O9" s="5">
-        <v>-3.7874498534313801E-2</v>
-      </c>
-      <c r="P9" s="6">
+        <v>2.4917640635396809E-4</v>
+      </c>
+      <c r="O10" s="5">
+        <v>-6.4490012285084206E-2</v>
+      </c>
+      <c r="P10" s="6">
         <v>1.38E-2</v>
       </c>
-      <c r="Q9" s="7">
+      <c r="Q10" s="14">
         <f t="shared" si="4"/>
-        <v>5.1674498534313801E-2</v>
-      </c>
-      <c r="R9" s="30"/>
-    </row>
-    <row r="10" spans="1:18" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="28"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="9">
-        <v>0.118747674107782</v>
-      </c>
-      <c r="D10" s="10">
+        <v>7.8290012285084198E-2</v>
+      </c>
+      <c r="R10" s="5">
+        <v>-4.0546046513956699E-3</v>
+      </c>
+      <c r="S10" s="6">
+        <v>0.17910000000000001</v>
+      </c>
+      <c r="T10" s="58">
+        <f t="shared" si="5"/>
+        <v>0.18315460465139569</v>
+      </c>
+      <c r="U10" s="31"/>
+    </row>
+    <row r="11" spans="1:21" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="43"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="9">
+        <v>9.3047199306904999E-2</v>
+      </c>
+      <c r="D11" s="10">
         <v>0.09</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E11" s="11">
         <f t="shared" si="0"/>
-        <v>2.8747674107782006E-2</v>
-      </c>
-      <c r="F10" s="9">
-        <v>0.17544268776390201</v>
-      </c>
-      <c r="G10" s="10">
+        <v>3.0471993069050018E-3</v>
+      </c>
+      <c r="F11" s="9">
+        <v>0.183</v>
+      </c>
+      <c r="G11" s="10">
         <v>0.19</v>
       </c>
-      <c r="H10" s="11">
+      <c r="H11" s="11">
         <f t="shared" si="1"/>
-        <v>1.4557312236097991E-2</v>
-      </c>
-      <c r="I10" s="9">
-        <v>1.18185321555018E-2</v>
-      </c>
-      <c r="J10" s="10">
+        <v>7.0000000000000062E-3</v>
+      </c>
+      <c r="I11" s="9">
+        <v>1.2E-2</v>
+      </c>
+      <c r="J11" s="10">
         <v>0.03</v>
       </c>
-      <c r="K10" s="11">
+      <c r="K11" s="13">
         <f t="shared" si="2"/>
-        <v>1.81814678444982E-2</v>
-      </c>
-      <c r="L10" s="41">
-        <v>0.47927424873639801</v>
-      </c>
-      <c r="M10" s="10">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="L11" s="28">
+        <v>0.249</v>
+      </c>
+      <c r="M11" s="10">
         <v>0.25</v>
       </c>
-      <c r="N10" s="12">
+      <c r="N11" s="13">
         <f t="shared" si="3"/>
-        <v>0.22927424873639801</v>
-      </c>
-      <c r="O10" s="9">
+        <v>1.0000000000000009E-3</v>
+      </c>
+      <c r="O11" s="9">
         <v>6.2373645411950503E-6</v>
       </c>
-      <c r="P10" s="10">
+      <c r="P11" s="10">
         <v>0.02</v>
       </c>
-      <c r="Q10" s="11">
+      <c r="Q11" s="13">
         <f t="shared" si="4"/>
         <v>1.9993762635458805E-2</v>
       </c>
-      <c r="R10" s="31"/>
-    </row>
-    <row r="11" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="26"/>
-      <c r="B11" s="4" t="s">
+      <c r="R11" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="S11" s="10">
+        <v>0.48</v>
+      </c>
+      <c r="T11" s="12">
+        <f t="shared" si="5"/>
+        <v>0.47</v>
+      </c>
+      <c r="U11" s="44"/>
+    </row>
+    <row r="12" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="30"/>
+      <c r="B12" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="5">
-        <v>8.2284331325647594E-2</v>
-      </c>
-      <c r="D11" s="6">
+      <c r="C12" s="5">
+        <v>8.1998124088653798E-2</v>
+      </c>
+      <c r="D12" s="6">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E12" s="7">
         <f t="shared" si="0"/>
-        <v>2.84331325647591E-4</v>
-      </c>
-      <c r="F11" s="5">
-        <v>0.15688803681319699</v>
-      </c>
-      <c r="G11" s="6">
+        <v>1.875911346205239E-6</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0.156679824330197</v>
+      </c>
+      <c r="G12" s="6">
         <v>0.15540000000000001</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H12" s="7">
         <f t="shared" si="1"/>
-        <v>1.4880368131969801E-3</v>
-      </c>
-      <c r="I11" s="5">
-        <v>0.14924812758622</v>
-      </c>
-      <c r="J11" s="6">
+        <v>1.2798243301969936E-3</v>
+      </c>
+      <c r="I12" s="5">
+        <v>0.14895972513782299</v>
+      </c>
+      <c r="J12" s="6">
         <v>0.14899999999999999</v>
       </c>
-      <c r="K11" s="7">
+      <c r="K12" s="14">
         <f t="shared" si="2"/>
-        <v>2.4812758622000386E-4</v>
-      </c>
-      <c r="L11" s="40">
-        <v>0.24958613489630799</v>
-      </c>
-      <c r="M11" s="6">
+        <v>4.0274862177003268E-5</v>
+      </c>
+      <c r="L12" s="27">
+        <v>0.24925489900398101</v>
+      </c>
+      <c r="M12" s="6">
         <v>0.24929999999999999</v>
       </c>
-      <c r="N11" s="7">
+      <c r="N12" s="14">
         <f t="shared" si="3"/>
-        <v>2.8613489630799349E-4</v>
-      </c>
-      <c r="O11" s="5">
-        <v>0.27883247976933101</v>
-      </c>
-      <c r="P11" s="6">
+        <v>4.5100996018981876E-5</v>
+      </c>
+      <c r="O12" s="5">
+        <v>0.277773678815527</v>
+      </c>
+      <c r="P12" s="6">
         <v>0.27779999999999999</v>
       </c>
-      <c r="Q11" s="7">
+      <c r="Q12" s="14">
         <f t="shared" si="4"/>
-        <v>1.0324797693310184E-3</v>
-      </c>
-      <c r="R11" s="30"/>
-    </row>
-    <row r="12" spans="1:18" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="28"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9">
-        <v>4.5776209402427798E-2</v>
-      </c>
-      <c r="D12" s="10">
+        <v>2.6321184472988257E-5</v>
+      </c>
+      <c r="R12" s="5">
+        <v>-1.8341397187570298E-2</v>
+      </c>
+      <c r="S12" s="6">
+        <v>-1.83E-2</v>
+      </c>
+      <c r="T12" s="14">
+        <f t="shared" si="5"/>
+        <v>4.1397187570298144E-5</v>
+      </c>
+      <c r="U12" s="31"/>
+    </row>
+    <row r="13" spans="1:21" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="43"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="9">
+        <v>4.57762094024287E-2</v>
+      </c>
+      <c r="D13" s="10">
         <v>0.05</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E13" s="11">
         <f t="shared" si="0"/>
-        <v>4.2237905975722051E-3</v>
-      </c>
-      <c r="F12" s="9">
-        <v>0.30822356178779398</v>
-      </c>
-      <c r="G12" s="10">
+        <v>4.223790597571303E-3</v>
+      </c>
+      <c r="F13" s="9">
+        <v>0.308</v>
+      </c>
+      <c r="G13" s="10">
         <v>0.3</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H13" s="11">
         <f t="shared" si="1"/>
-        <v>8.2235617877939871E-3</v>
-      </c>
-      <c r="I12" s="9">
-        <v>0.40472037302124197</v>
-      </c>
-      <c r="J12" s="10">
+        <v>8.0000000000000071E-3</v>
+      </c>
+      <c r="I13" s="9">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="J13" s="10">
         <v>0.21</v>
       </c>
-      <c r="K12" s="12">
+      <c r="K13" s="13">
         <f t="shared" si="2"/>
-        <v>0.19472037302124198</v>
-      </c>
-      <c r="L12" s="41">
-        <v>6.0079759791246197E-2</v>
-      </c>
-      <c r="M12" s="10">
+        <v>1.0000000000000009E-3</v>
+      </c>
+      <c r="L13" s="28">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="M13" s="10">
         <v>0.23</v>
       </c>
-      <c r="N12" s="12">
+      <c r="N13" s="13">
         <f t="shared" si="3"/>
-        <v>0.16992024020875382</v>
-      </c>
-      <c r="O12" s="9">
-        <v>5.76351764492299E-2</v>
-      </c>
-      <c r="P12" s="10">
+        <v>1.0000000000000009E-3</v>
+      </c>
+      <c r="O13" s="9">
         <v>0.01</v>
       </c>
-      <c r="Q12" s="13">
+      <c r="P13" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="Q13" s="13">
         <f t="shared" si="4"/>
-        <v>4.7635176449229898E-2</v>
-      </c>
-      <c r="R12" s="31"/>
-    </row>
-    <row r="13" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="26"/>
-      <c r="B13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="R13" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="S13" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="T13" s="13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U13" s="44"/>
+    </row>
+    <row r="14" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="30"/>
+      <c r="B14" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="5">
-        <v>7.6275101175186405E-2</v>
-      </c>
-      <c r="D13" s="6">
+      <c r="C14" s="5">
+        <v>8.0926422647853796E-2</v>
+      </c>
+      <c r="D14" s="6">
         <v>8.9200000000000002E-2</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E14" s="7">
         <f t="shared" si="0"/>
-        <v>1.2924898824813597E-2</v>
-      </c>
-      <c r="F13" s="5">
-        <v>6.2064527773984302E-2</v>
-      </c>
-      <c r="G13" s="6">
+        <v>8.2735773521462053E-3</v>
+      </c>
+      <c r="F14" s="5">
+        <v>9.0538527762373394E-2</v>
+      </c>
+      <c r="G14" s="6">
         <v>6.7799999999999999E-2</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H14" s="7">
         <f t="shared" si="1"/>
-        <v>5.7354722260156976E-3</v>
-      </c>
-      <c r="I13" s="5">
-        <v>4.5876852227311297E-2</v>
-      </c>
-      <c r="J13" s="6">
+        <v>2.2738527762373395E-2</v>
+      </c>
+      <c r="I14" s="5">
+        <v>8.6056504480668997E-2</v>
+      </c>
+      <c r="J14" s="6">
         <v>8.48E-2</v>
       </c>
-      <c r="K13" s="7">
+      <c r="K14" s="14">
         <f t="shared" si="2"/>
-        <v>3.8923147772688703E-2</v>
-      </c>
-      <c r="L13" s="40">
-        <v>0.110099721320482</v>
-      </c>
-      <c r="M13" s="6">
+        <v>1.2565044806689962E-3</v>
+      </c>
+      <c r="L14" s="27">
+        <v>0.119503127976746</v>
+      </c>
+      <c r="M14" s="6">
         <v>0.1084</v>
       </c>
-      <c r="N13" s="7">
+      <c r="N14" s="14">
         <f t="shared" si="3"/>
-        <v>1.6997213204820033E-3</v>
-      </c>
-      <c r="O13" s="5">
-        <v>0.198052601092432</v>
-      </c>
-      <c r="P13" s="6">
+        <v>1.1103127976746008E-2</v>
+      </c>
+      <c r="O14" s="5">
+        <v>0.20039672446774401</v>
+      </c>
+      <c r="P14" s="6">
         <v>0.19769999999999999</v>
       </c>
-      <c r="Q13" s="7">
+      <c r="Q14" s="14">
         <f t="shared" si="4"/>
-        <v>3.5260109243201443E-4</v>
-      </c>
-      <c r="R13" s="30"/>
-    </row>
-    <row r="14" spans="1:18" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="28"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9">
-        <v>5.5191743245149902E-2</v>
-      </c>
-      <c r="D14" s="10">
+        <v>2.6967244677440216E-3</v>
+      </c>
+      <c r="R14" s="5">
+        <v>0.19820071758494401</v>
+      </c>
+      <c r="S14" s="6">
+        <v>0.2024</v>
+      </c>
+      <c r="T14" s="14">
+        <f t="shared" si="5"/>
+        <v>4.1992824150559882E-3</v>
+      </c>
+      <c r="U14" s="31"/>
+    </row>
+    <row r="15" spans="1:21" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="43"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="9">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D15" s="10">
         <v>0.09</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E15" s="11">
         <f t="shared" si="0"/>
-        <v>3.4808256754850095E-2</v>
-      </c>
-      <c r="F14" s="9">
-        <v>2.2347956078913E-2</v>
-      </c>
-      <c r="G14" s="10">
+        <v>1.999999999999999E-2</v>
+      </c>
+      <c r="F15" s="9">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="G15" s="10">
         <v>0.03</v>
       </c>
-      <c r="H14" s="11">
+      <c r="H15" s="11">
         <f t="shared" si="1"/>
-        <v>7.6520439210869991E-3</v>
-      </c>
-      <c r="I14" s="9">
-        <v>0.176280859632199</v>
-      </c>
-      <c r="J14" s="10">
+        <v>4.1999999999999996E-2</v>
+      </c>
+      <c r="I15" s="9">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="J15" s="10">
         <v>0.17</v>
       </c>
-      <c r="K14" s="11">
+      <c r="K15" s="13">
         <f t="shared" si="2"/>
-        <v>6.2808596321989874E-3</v>
-      </c>
-      <c r="L14" s="41">
-        <v>6.0079759791246197E-2</v>
-      </c>
-      <c r="M14" s="10">
+        <v>4.9999999999999767E-3</v>
+      </c>
+      <c r="L15" s="28">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="M15" s="10">
         <v>0.02</v>
       </c>
-      <c r="N14" s="13">
+      <c r="N15" s="13">
         <f t="shared" si="3"/>
-        <v>4.00797597912462E-2</v>
-      </c>
-      <c r="O14" s="9">
-        <v>0.31429282806223302</v>
-      </c>
-      <c r="P14" s="10">
+        <v>5.9999999999999984E-3</v>
+      </c>
+      <c r="O15" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="P15" s="10">
         <v>0.02</v>
       </c>
-      <c r="Q14" s="12">
+      <c r="Q15" s="13">
         <f t="shared" si="4"/>
-        <v>0.294292828062233</v>
-      </c>
-      <c r="R14" s="31"/>
-    </row>
-    <row r="15" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="26"/>
-      <c r="B15" s="4" t="s">
+        <v>0.01</v>
+      </c>
+      <c r="R15" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="S15" s="10">
+        <v>0.27</v>
+      </c>
+      <c r="T15" s="13">
+        <f t="shared" si="5"/>
+        <v>2.9999999999999971E-2</v>
+      </c>
+      <c r="U15" s="44"/>
+    </row>
+    <row r="16" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="30"/>
+      <c r="B16" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="5">
-        <v>7.67448166240568E-2</v>
-      </c>
-      <c r="D15" s="6">
+      <c r="C16" s="5">
+        <v>0.100224293971911</v>
+      </c>
+      <c r="D16" s="6">
         <v>0.1075</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E16" s="7">
         <f t="shared" si="0"/>
-        <v>3.0755183375943199E-2</v>
-      </c>
-      <c r="F15" s="5">
-        <v>6.2230312397937797E-2</v>
-      </c>
-      <c r="G15" s="6">
+        <v>7.2757060280889962E-3</v>
+      </c>
+      <c r="F16" s="5">
+        <v>9.9684426392310801E-2</v>
+      </c>
+      <c r="G16" s="6">
         <v>8.1900000000000001E-2</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H16" s="7">
         <f t="shared" si="1"/>
-        <v>1.9669687602062204E-2</v>
-      </c>
-      <c r="I15" s="5">
-        <v>4.9792076474601002E-2</v>
-      </c>
-      <c r="J15" s="6">
+        <v>1.7784426392310801E-2</v>
+      </c>
+      <c r="I16" s="5">
+        <v>9.2537516277118606E-2</v>
+      </c>
+      <c r="J16" s="6">
         <v>8.48E-2</v>
       </c>
-      <c r="K15" s="7">
+      <c r="K16" s="14">
         <f t="shared" si="2"/>
-        <v>3.5007923525398998E-2</v>
-      </c>
-      <c r="L15" s="40">
-        <v>0.124644304529135</v>
-      </c>
-      <c r="M15" s="6">
+        <v>7.7375162771186057E-3</v>
+      </c>
+      <c r="L16" s="27">
+        <v>0.17050624665889699</v>
+      </c>
+      <c r="M16" s="6">
         <v>0.15140000000000001</v>
       </c>
-      <c r="N15" s="15">
+      <c r="N16" s="14">
         <f t="shared" si="3"/>
-        <v>2.675569547086501E-2</v>
-      </c>
-      <c r="O15" s="5">
-        <v>0.198194209321578</v>
-      </c>
-      <c r="P15" s="6">
+        <v>1.9106246658896986E-2</v>
+      </c>
+      <c r="O16" s="5">
+        <v>0.202330788805796</v>
+      </c>
+      <c r="P16" s="6">
         <v>0.19550000000000001</v>
       </c>
-      <c r="Q15" s="7">
+      <c r="Q16" s="14">
         <f t="shared" si="4"/>
-        <v>2.6942093215779894E-3</v>
-      </c>
-      <c r="R15" s="30"/>
-    </row>
-    <row r="16" spans="1:18" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="28"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9">
-        <v>5.5868826999371297E-2</v>
-      </c>
-      <c r="D16" s="10">
+        <v>6.8307888057959898E-3</v>
+      </c>
+      <c r="R16" s="5">
+        <v>0.21590659207712201</v>
+      </c>
+      <c r="S16" s="6">
+        <v>0.20619999999999999</v>
+      </c>
+      <c r="T16" s="14">
+        <f t="shared" si="5"/>
+        <v>9.7065920771220171E-3</v>
+      </c>
+      <c r="U16" s="31"/>
+    </row>
+    <row r="17" spans="1:21" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="43"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="9">
+        <v>0.11</v>
+      </c>
+      <c r="D17" s="10">
         <v>0.14000000000000001</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E17" s="11">
         <f t="shared" si="0"/>
-        <v>8.4131173000628723E-2</v>
-      </c>
-      <c r="F16" s="9">
-        <v>2.25515488068962E-2</v>
-      </c>
-      <c r="G16" s="10">
+        <v>3.0000000000000013E-2</v>
+      </c>
+      <c r="F17" s="9">
+        <v>0.115</v>
+      </c>
+      <c r="G17" s="10">
         <v>0.06</v>
       </c>
-      <c r="H16" s="11">
+      <c r="H17" s="11">
         <f t="shared" si="1"/>
-        <v>3.7448451193103797E-2</v>
-      </c>
-      <c r="I16" s="9">
-        <v>0.18801784056113799</v>
-      </c>
-      <c r="J16" s="10">
+        <v>5.5000000000000007E-2</v>
+      </c>
+      <c r="I17" s="9">
+        <v>0.18</v>
+      </c>
+      <c r="J17" s="10">
         <v>0.15</v>
       </c>
-      <c r="K16" s="11">
+      <c r="K17" s="13">
         <f t="shared" si="2"/>
-        <v>3.8017840561137994E-2</v>
-      </c>
-      <c r="L16" s="41">
-        <v>8.7605977197867599E-2</v>
-      </c>
-      <c r="M16" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="L17" s="28">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="M17" s="10">
         <v>0.09</v>
       </c>
-      <c r="N16" s="13">
+      <c r="N17" s="13">
         <f t="shared" si="3"/>
-        <v>2.3940228021323978E-3</v>
-      </c>
-      <c r="O16" s="9">
-        <v>0.31361082307350602</v>
-      </c>
-      <c r="P16" s="10">
+        <v>4.7000000000000014E-2</v>
+      </c>
+      <c r="O17" s="9">
+        <v>0</v>
+      </c>
+      <c r="P17" s="10">
         <v>0.03</v>
       </c>
-      <c r="Q16" s="12">
+      <c r="Q17" s="13">
         <f t="shared" si="4"/>
-        <v>0.28361082307350605</v>
-      </c>
-      <c r="R16" s="31"/>
-    </row>
-    <row r="17" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="26"/>
-      <c r="B17" s="4" t="s">
+        <v>0.03</v>
+      </c>
+      <c r="R17" s="9">
+        <v>0.18</v>
+      </c>
+      <c r="S17" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="T17" s="13">
+        <f t="shared" si="5"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="U17" s="44"/>
+    </row>
+    <row r="18" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="30"/>
+      <c r="B18" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="5">
-        <v>0.18824599113899401</v>
-      </c>
-      <c r="D17" s="6">
+      <c r="C18" s="5">
+        <v>0.121591363758669</v>
+      </c>
+      <c r="D18" s="6">
         <v>8.3400000000000002E-2</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E18" s="14">
         <f t="shared" si="0"/>
-        <v>0.10484599113899401</v>
-      </c>
-      <c r="F17" s="5">
-        <v>0.14653573167148901</v>
-      </c>
-      <c r="G17" s="6">
+        <v>3.8191363758668995E-2</v>
+      </c>
+      <c r="F18" s="5">
+        <v>0.14631779683069801</v>
+      </c>
+      <c r="G18" s="6">
         <v>0.14249999999999999</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H18" s="7">
         <f t="shared" si="1"/>
-        <v>4.0357316714890179E-3</v>
-      </c>
-      <c r="I17" s="5">
-        <v>0.12793024606278</v>
-      </c>
-      <c r="J17" s="6">
+        <v>3.8177968306980226E-3</v>
+      </c>
+      <c r="I18" s="5">
+        <v>0.14302747186995099</v>
+      </c>
+      <c r="J18" s="6">
         <v>0.15010000000000001</v>
       </c>
-      <c r="K17" s="15">
+      <c r="K18" s="14">
         <f t="shared" si="2"/>
-        <v>2.216975393722001E-2</v>
-      </c>
-      <c r="L17" s="40">
-        <v>0.224329224230567</v>
-      </c>
-      <c r="M17" s="6">
+        <v>7.0725281300490217E-3</v>
+      </c>
+      <c r="L18" s="27">
+        <v>0.202713292423853</v>
+      </c>
+      <c r="M18" s="6">
         <v>0.24929999999999999</v>
       </c>
-      <c r="N17" s="15">
+      <c r="N18" s="14">
         <f t="shared" si="3"/>
-        <v>2.497077576943299E-2</v>
-      </c>
-      <c r="O17" s="5">
-        <v>0.16266525076287899</v>
-      </c>
-      <c r="P17" s="6">
+        <v>4.6586707576146996E-2</v>
+      </c>
+      <c r="O18" s="5">
+        <v>0.17533806544834801</v>
+      </c>
+      <c r="P18" s="6">
         <v>0.15459999999999999</v>
       </c>
-      <c r="Q17" s="15">
+      <c r="Q18" s="14">
         <f t="shared" si="4"/>
-        <v>8.065250762879006E-3</v>
-      </c>
-      <c r="R17" s="30"/>
-    </row>
-    <row r="18" spans="1:18" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="28"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="9">
-        <v>0.153339677183502</v>
-      </c>
-      <c r="D18" s="10">
+        <v>2.0738065448348025E-2</v>
+      </c>
+      <c r="R18" s="5">
+        <v>0.36053167056829799</v>
+      </c>
+      <c r="S18" s="6">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="T18" s="14">
+        <f t="shared" si="5"/>
+        <v>2.5316705682980056E-3</v>
+      </c>
+      <c r="U18" s="31"/>
+    </row>
+    <row r="19" spans="1:21" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="43"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="9">
+        <v>3.5817900897945398E-2</v>
+      </c>
+      <c r="D19" s="10">
         <v>0.01</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E19" s="13">
         <f t="shared" si="0"/>
-        <v>0.14333967718350199</v>
-      </c>
-      <c r="F18" s="9">
-        <v>0.374113176461631</v>
-      </c>
-      <c r="G18" s="10">
+        <v>2.5817900897945396E-2</v>
+      </c>
+      <c r="F19" s="9">
+        <v>0.374</v>
+      </c>
+      <c r="G19" s="10">
         <v>0.41</v>
       </c>
-      <c r="H18" s="11">
+      <c r="H19" s="11">
         <f t="shared" si="1"/>
-        <v>3.5886823538368973E-2</v>
-      </c>
-      <c r="I18" s="9">
-        <v>0.49992833869969699</v>
-      </c>
-      <c r="J18" s="10">
+        <v>3.5999999999999976E-2</v>
+      </c>
+      <c r="I19" s="9">
+        <v>0.21</v>
+      </c>
+      <c r="J19" s="10">
         <v>0.16</v>
       </c>
-      <c r="K18" s="12">
+      <c r="K19" s="13">
         <f t="shared" si="2"/>
-        <v>0.33992833869969696</v>
-      </c>
-      <c r="L18" s="41">
-        <v>0.49996839888077199</v>
-      </c>
-      <c r="M18" s="10">
+        <v>4.9999999999999989E-2</v>
+      </c>
+      <c r="L19" s="28">
+        <v>0.159</v>
+      </c>
+      <c r="M19" s="10">
         <v>0.23</v>
       </c>
-      <c r="N18" s="12">
+      <c r="N19" s="13">
         <f t="shared" si="3"/>
-        <v>0.26996839888077195</v>
-      </c>
-      <c r="O18" s="9">
-        <v>0.499027732196347</v>
-      </c>
-      <c r="P18" s="10">
+        <v>7.1000000000000008E-2</v>
+      </c>
+      <c r="O19" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="P19" s="10">
         <v>0.35</v>
       </c>
-      <c r="Q18" s="12">
+      <c r="Q19" s="12">
         <f t="shared" si="4"/>
-        <v>0.14902773219634702</v>
-      </c>
-      <c r="R18" s="31"/>
-    </row>
-    <row r="19" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="26"/>
-      <c r="B19" s="4" t="s">
+        <v>0.14999999999999997</v>
+      </c>
+      <c r="R19" s="9">
+        <v>0</v>
+      </c>
+      <c r="S19" s="10">
+        <v>0</v>
+      </c>
+      <c r="T19" s="13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U19" s="44"/>
+    </row>
+    <row r="20" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="30"/>
+      <c r="B20" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="5">
-        <v>0.18824599113899401</v>
-      </c>
-      <c r="D19" s="6">
+      <c r="C20" s="5">
+        <v>0.15998728598443701</v>
+      </c>
+      <c r="D20" s="6">
         <v>0.1371</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E20" s="7">
         <f t="shared" si="0"/>
-        <v>5.1145991138994013E-2</v>
-      </c>
-      <c r="F19" s="5">
-        <v>0.147075320909933</v>
-      </c>
-      <c r="G19" s="6">
+        <v>2.2887285984437011E-2</v>
+      </c>
+      <c r="F20" s="5">
+        <v>0.14709608317586001</v>
+      </c>
+      <c r="G20" s="6">
         <v>0.14510000000000001</v>
       </c>
-      <c r="H19" s="7">
+      <c r="H20" s="7">
         <f t="shared" si="1"/>
-        <v>1.9753209099329927E-3</v>
-      </c>
-      <c r="I19" s="5">
-        <v>0.12793024606278</v>
-      </c>
-      <c r="J19" s="6">
+        <v>1.9960831758600028E-3</v>
+      </c>
+      <c r="I20" s="5">
+        <v>0.13635456295105</v>
+      </c>
+      <c r="J20" s="6">
         <v>0.1429</v>
       </c>
-      <c r="K19" s="7">
+      <c r="K20" s="14">
         <f t="shared" si="2"/>
-        <v>1.4969753937219998E-2</v>
-      </c>
-      <c r="L19" s="40">
-        <v>0.224329224230567</v>
-      </c>
-      <c r="M19" s="6">
+        <v>6.545437048949998E-3</v>
+      </c>
+      <c r="L20" s="27">
+        <v>0.209014919897166</v>
+      </c>
+      <c r="M20" s="6">
         <v>0.2467</v>
       </c>
-      <c r="N19" s="7">
+      <c r="N20" s="14">
         <f t="shared" si="3"/>
-        <v>2.2370775769432999E-2</v>
-      </c>
-      <c r="O19" s="5">
-        <v>0.16266525076287899</v>
-      </c>
-      <c r="P19" s="6">
+        <v>3.7685080102834001E-2</v>
+      </c>
+      <c r="O20" s="5">
+        <v>0.16609444699929199</v>
+      </c>
+      <c r="P20" s="6">
         <v>0.1615</v>
       </c>
-      <c r="Q19" s="7">
+      <c r="Q20" s="14">
         <f t="shared" si="4"/>
-        <v>1.1652507628789888E-3</v>
-      </c>
-      <c r="R19" s="30"/>
-    </row>
-    <row r="20" spans="1:18" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="28"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="17">
-        <v>0.153339677183502</v>
-      </c>
-      <c r="D20" s="18">
+        <v>4.5944469992919845E-3</v>
+      </c>
+      <c r="R20" s="5">
+        <v>0.29398343288193102</v>
+      </c>
+      <c r="S20" s="6">
+        <v>0.30280000000000001</v>
+      </c>
+      <c r="T20" s="14">
+        <f t="shared" si="5"/>
+        <v>8.8165671180689964E-3</v>
+      </c>
+      <c r="U20" s="31"/>
+    </row>
+    <row r="21" spans="1:21" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="43"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="16">
+        <v>0.14442659850346401</v>
+      </c>
+      <c r="D21" s="17">
         <v>0.08</v>
       </c>
-      <c r="E20" s="19">
+      <c r="E21" s="18">
         <f t="shared" si="0"/>
-        <v>7.3339677183501997E-2</v>
-      </c>
-      <c r="F20" s="17">
-        <v>0.30304635861941598</v>
-      </c>
-      <c r="G20" s="18">
+        <v>6.4426598503464008E-2</v>
+      </c>
+      <c r="F21" s="16">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="G21" s="17">
         <v>0.31</v>
       </c>
-      <c r="H20" s="19">
+      <c r="H21" s="18">
         <f t="shared" si="1"/>
-        <v>6.9536413805840191E-3</v>
-      </c>
-      <c r="I20" s="17">
-        <v>0.49992833869969699</v>
-      </c>
-      <c r="J20" s="18">
+        <v>1.100000000000001E-2</v>
+      </c>
+      <c r="I21" s="16">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="J21" s="17">
         <v>0.19</v>
       </c>
-      <c r="K20" s="20">
+      <c r="K21" s="20">
         <f t="shared" si="2"/>
-        <v>0.30992833869969699</v>
-      </c>
-      <c r="L20" s="42">
-        <v>0.49996839888077199</v>
-      </c>
-      <c r="M20" s="18">
+        <v>7.2000000000000008E-2</v>
+      </c>
+      <c r="L21" s="29">
+        <v>0.217</v>
+      </c>
+      <c r="M21" s="17">
         <v>0.25</v>
       </c>
-      <c r="N20" s="20">
+      <c r="N21" s="20">
         <f t="shared" si="3"/>
-        <v>0.24996839888077199</v>
-      </c>
-      <c r="O20" s="17">
-        <v>0.499027732196347</v>
-      </c>
-      <c r="P20" s="18">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="O21" s="16">
+        <v>0.33</v>
+      </c>
+      <c r="P21" s="17">
         <v>0.47</v>
       </c>
-      <c r="Q20" s="21">
+      <c r="Q21" s="19">
         <f t="shared" si="4"/>
-        <v>2.9027732196347023E-2</v>
-      </c>
-      <c r="R20" s="31"/>
-    </row>
-    <row r="21" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="26"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="30"/>
-      <c r="M21" s="30"/>
-      <c r="N21" s="30"/>
-      <c r="O21" s="30"/>
-      <c r="P21" s="30"/>
-      <c r="Q21" s="30"/>
-      <c r="R21" s="30"/>
+        <v>0.13999999999999996</v>
+      </c>
+      <c r="R21" s="16">
+        <v>0</v>
+      </c>
+      <c r="S21" s="17">
+        <v>0</v>
+      </c>
+      <c r="T21" s="20">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U21" s="44"/>
+    </row>
+    <row r="22" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="30"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="26"/>
+      <c r="O22" s="26"/>
+      <c r="P22" s="26"/>
+      <c r="Q22" s="26"/>
+      <c r="R22" s="26"/>
+      <c r="S22" s="26"/>
+      <c r="T22" s="26"/>
+      <c r="U22" s="31"/>
+    </row>
+    <row r="23" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="30"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="48"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="48"/>
+      <c r="J23" s="48"/>
+      <c r="K23" s="48"/>
+      <c r="L23" s="48"/>
+      <c r="M23" s="48"/>
+      <c r="N23" s="48"/>
+      <c r="O23" s="48"/>
+      <c r="P23" s="48"/>
+      <c r="Q23" s="48"/>
+      <c r="R23" s="48"/>
+      <c r="S23" s="48"/>
+      <c r="T23" s="49"/>
+      <c r="U23" s="31"/>
+    </row>
+    <row r="24" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="30"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="26"/>
+      <c r="N24" s="26"/>
+      <c r="O24" s="26"/>
+      <c r="P24" s="26"/>
+      <c r="Q24" s="26"/>
+      <c r="R24" s="26"/>
+      <c r="S24" s="26"/>
+      <c r="T24" s="31"/>
+      <c r="U24" s="31"/>
+    </row>
+    <row r="25" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="30"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" s="32">
+        <f>AVERAGE(E6:E21)</f>
+        <v>1.5109437877078708E-2</v>
+      </c>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="H25" s="32">
+        <f>AVERAGE(H6:H21)</f>
+        <v>1.3578013752142105E-2</v>
+      </c>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="K25" s="32">
+        <f>AVERAGE(K6:K21)</f>
+        <v>1.7879952446103541E-2</v>
+      </c>
+      <c r="L25" s="26"/>
+      <c r="M25" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="N25" s="32">
+        <f>AVERAGE(N6:N21)</f>
+        <v>1.7269398157903244E-2</v>
+      </c>
+      <c r="O25" s="26"/>
+      <c r="P25" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q25" s="32">
+        <f>AVERAGE(Q6:Q21)</f>
+        <v>3.6248653107928644E-2</v>
+      </c>
+      <c r="R25" s="26"/>
+      <c r="S25" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="T25" s="33">
+        <f>AVERAGE(T6:T21)</f>
+        <v>8.9032933415163357E-2</v>
+      </c>
+      <c r="U25" s="31"/>
+    </row>
+    <row r="26" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="30"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="32">
+        <f>AVERAGE(E20,E18,E16,E14,E12,E10,E8,E7,E6)</f>
+        <v>1.0470612969708182E-2</v>
+      </c>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="H26" s="32">
+        <f>AVERAGE(H20,H18,H16,H14,H12,H10,H8,H7,H6)</f>
+        <v>5.9164688926970806E-3</v>
+      </c>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="K26" s="32">
+        <f>AVERAGE(K20,K18,K16,K14,K12,K10,K8,K7,K6)</f>
+        <v>1.0008804348628516E-2</v>
+      </c>
+      <c r="L26" s="26"/>
+      <c r="M26" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="N26" s="32">
+        <f>AVERAGE(N20,N18,N16,N14,N12,N10,N8,N7,N6)</f>
+        <v>1.2923374502939098E-2</v>
+      </c>
+      <c r="O26" s="26"/>
+      <c r="P26" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q26" s="32">
+        <f>AVERAGE(Q20,Q18,Q16,Q14,Q12,Q10,Q8,Q7,Q6)</f>
+        <v>2.3332371189818769E-2</v>
+      </c>
+      <c r="R26" s="26"/>
+      <c r="S26" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="T26" s="33">
+        <f>AVERAGE(T20,T18,T16,T14,T12,T10,T8,T7,T6)</f>
+        <v>4.6058548293623727E-2</v>
+      </c>
+      <c r="U26" s="31"/>
+    </row>
+    <row r="27" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="30"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="36">
+        <f>AVERAGE(E21,E19,E17,E15,E13,E11,E9)</f>
+        <v>2.1073641329412248E-2</v>
+      </c>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="H27" s="36">
+        <f>AVERAGE(H21,H19,H17,H15,H13,H11,H9)</f>
+        <v>2.3428571428571427E-2</v>
+      </c>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="K27" s="36">
+        <f>AVERAGE(K21,K19,K17,K15,K13,K11,K9)</f>
+        <v>2.7999999999999994E-2</v>
+      </c>
+      <c r="L27" s="35"/>
+      <c r="M27" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="N27" s="36">
+        <f>AVERAGE(N21,N19,N17,N15,N13,N11,N9)</f>
+        <v>2.2857142857142861E-2</v>
+      </c>
+      <c r="O27" s="35"/>
+      <c r="P27" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q27" s="36">
+        <f>AVERAGE(Q21,Q19,Q17,Q15,Q13,Q11,Q9)</f>
+        <v>5.2855301288355645E-2</v>
+      </c>
+      <c r="R27" s="35"/>
+      <c r="S27" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="T27" s="37">
+        <f>AVERAGE(T21,T19,T17,T15,T13,T11,T9)</f>
+        <v>0.14428571428571429</v>
+      </c>
+      <c r="U27" s="31"/>
+    </row>
+    <row r="28" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="34"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="35"/>
+      <c r="L28" s="35"/>
+      <c r="M28" s="35"/>
+      <c r="N28" s="35"/>
+      <c r="O28" s="35"/>
+      <c r="P28" s="35"/>
+      <c r="Q28" s="35"/>
+      <c r="R28" s="35"/>
+      <c r="S28" s="35"/>
+      <c r="T28" s="35"/>
+      <c r="U28" s="46"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="L2:N2"/>
+  <mergeCells count="14">
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="R4:T4"/>
+    <mergeCell ref="C23:T23"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
     <mergeCell ref="L3:N3"/>
-    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="O4:Q4"/>
     <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C3:E3"/>
   </mergeCells>
-  <conditionalFormatting sqref="H5:H20">
-    <cfRule type="colorScale" priority="6">
+  <conditionalFormatting sqref="H6:H21">
+    <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="0.1"/>
@@ -1805,7 +2333,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K5:K20">
+  <conditionalFormatting sqref="K6:K21">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="0.1"/>
+        <color rgb="FF92D050"/>
+        <color theme="0"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N6:N21">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -1815,7 +2353,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N5:N20">
+  <conditionalFormatting sqref="Q6:Q21">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -1825,7 +2363,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q5:Q20">
+  <conditionalFormatting sqref="E6:E21">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -1835,7 +2373,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E5:E20">
+  <conditionalFormatting sqref="T6:T21">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="0"/>
